--- a/data/pca/factorExposure/factorExposure_2016-02-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01166250079755801</v>
+        <v>0.01593173473902388</v>
       </c>
       <c r="C2">
-        <v>0.05095353849694496</v>
+        <v>0.04241128379619308</v>
       </c>
       <c r="D2">
-        <v>-0.0851491239925152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1008966233797074</v>
+      </c>
+      <c r="E2">
+        <v>0.1124887833086505</v>
+      </c>
+      <c r="F2">
+        <v>0.01351117374362395</v>
+      </c>
+      <c r="G2">
+        <v>-0.03457367860656806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0248737045035808</v>
+        <v>0.01500068532378467</v>
       </c>
       <c r="C3">
-        <v>0.103414399217252</v>
+        <v>0.05093448123073287</v>
       </c>
       <c r="D3">
-        <v>-0.1097022985112293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08031820351224618</v>
+      </c>
+      <c r="E3">
+        <v>0.1077950467622301</v>
+      </c>
+      <c r="F3">
+        <v>-0.04518273047583801</v>
+      </c>
+      <c r="G3">
+        <v>-0.08885723436004017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06240972187726425</v>
+        <v>0.06245358947681269</v>
       </c>
       <c r="C4">
-        <v>0.0666713149870907</v>
+        <v>0.06673497455072278</v>
       </c>
       <c r="D4">
-        <v>-0.08470344660146667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1097152212480177</v>
+      </c>
+      <c r="E4">
+        <v>0.08172263249522027</v>
+      </c>
+      <c r="F4">
+        <v>-0.03538891842249066</v>
+      </c>
+      <c r="G4">
+        <v>0.03760551675919665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0444422334781394</v>
+        <v>0.04100653019803187</v>
       </c>
       <c r="C6">
-        <v>0.04315056893576923</v>
+        <v>0.03053921344032441</v>
       </c>
       <c r="D6">
-        <v>-0.0818779954205459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1062046610470156</v>
+      </c>
+      <c r="E6">
+        <v>0.07314238594924337</v>
+      </c>
+      <c r="F6">
+        <v>-0.02219299590347282</v>
+      </c>
+      <c r="G6">
+        <v>-0.003871116823974227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0289787788463995</v>
+        <v>0.02162540454327187</v>
       </c>
       <c r="C7">
-        <v>0.03917070219022222</v>
+        <v>0.0382658014135405</v>
       </c>
       <c r="D7">
-        <v>-0.05596298194480425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.07659886774922581</v>
+      </c>
+      <c r="E7">
+        <v>0.0646398282027764</v>
+      </c>
+      <c r="F7">
+        <v>-0.02380686520911891</v>
+      </c>
+      <c r="G7">
+        <v>0.05460033276105888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.007520414299798032</v>
+        <v>0.006582367037870497</v>
       </c>
       <c r="C8">
-        <v>0.04794333539467319</v>
+        <v>0.04061810084493465</v>
       </c>
       <c r="D8">
-        <v>-0.05525301557023538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.06822740740661816</v>
+      </c>
+      <c r="E8">
+        <v>0.05094411517940137</v>
+      </c>
+      <c r="F8">
+        <v>-0.01748003482243159</v>
+      </c>
+      <c r="G8">
+        <v>-0.008622826187513387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04292923618648561</v>
+        <v>0.04488358696935023</v>
       </c>
       <c r="C9">
-        <v>0.05027245545256388</v>
+        <v>0.05593466435147982</v>
       </c>
       <c r="D9">
-        <v>-0.07179766508035725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.09480827865147376</v>
+      </c>
+      <c r="E9">
+        <v>0.06248884277204782</v>
+      </c>
+      <c r="F9">
+        <v>-0.01201904977404099</v>
+      </c>
+      <c r="G9">
+        <v>0.0400165014357289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08807429979284914</v>
+        <v>0.1138062830305822</v>
       </c>
       <c r="C10">
-        <v>-0.1826396839232952</v>
+        <v>-0.1943409544799853</v>
       </c>
       <c r="D10">
-        <v>0.0003294507423886241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01141982821427005</v>
+      </c>
+      <c r="E10">
+        <v>0.05287172608145636</v>
+      </c>
+      <c r="F10">
+        <v>-0.01239687827381229</v>
+      </c>
+      <c r="G10">
+        <v>0.03259453258926662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0413517057561082</v>
+        <v>0.03475202515624166</v>
       </c>
       <c r="C11">
-        <v>0.05236466908469129</v>
+        <v>0.04742238415976579</v>
       </c>
       <c r="D11">
-        <v>-0.04327169781705344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05125573127334263</v>
+      </c>
+      <c r="E11">
+        <v>0.02875801870338255</v>
+      </c>
+      <c r="F11">
+        <v>-0.01021963658152598</v>
+      </c>
+      <c r="G11">
+        <v>0.04040284167521341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0448176419508514</v>
+        <v>0.03724823197772471</v>
       </c>
       <c r="C12">
-        <v>0.04906198792622025</v>
+        <v>0.04668103687638698</v>
       </c>
       <c r="D12">
-        <v>-0.02823808625091632</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0449033228765133</v>
+      </c>
+      <c r="E12">
+        <v>0.04000811391957451</v>
+      </c>
+      <c r="F12">
+        <v>-0.003892406315108408</v>
+      </c>
+      <c r="G12">
+        <v>0.03745282898209956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01734383793649879</v>
+        <v>0.01799734902934325</v>
       </c>
       <c r="C13">
-        <v>0.0555310171437363</v>
+        <v>0.04361604201544576</v>
       </c>
       <c r="D13">
-        <v>-0.06777416249615209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1054059533929701</v>
+      </c>
+      <c r="E13">
+        <v>0.1113912766778067</v>
+      </c>
+      <c r="F13">
+        <v>-0.03005510880959882</v>
+      </c>
+      <c r="G13">
+        <v>0.04568103068273003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01432748282238139</v>
+        <v>0.008172188931294108</v>
       </c>
       <c r="C14">
-        <v>0.0339221197325402</v>
+        <v>0.02945025639693346</v>
       </c>
       <c r="D14">
-        <v>-0.03902594192567414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.06337777793219675</v>
+      </c>
+      <c r="E14">
+        <v>0.07207852643173068</v>
+      </c>
+      <c r="F14">
+        <v>0.003414721441919148</v>
+      </c>
+      <c r="G14">
+        <v>0.03581045182109455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0006165539493698323</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006549139662538199</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0176695457720703</v>
+      </c>
+      <c r="E15">
+        <v>0.008373319543552686</v>
+      </c>
+      <c r="F15">
+        <v>0.001336785413416608</v>
+      </c>
+      <c r="G15">
+        <v>-0.002618648768707205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04065480878874743</v>
+        <v>0.03425519676476246</v>
       </c>
       <c r="C16">
-        <v>0.05172499029739845</v>
+        <v>0.04679847585809255</v>
       </c>
       <c r="D16">
-        <v>-0.03590464234240329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05069681532087651</v>
+      </c>
+      <c r="E16">
+        <v>0.04188845465115264</v>
+      </c>
+      <c r="F16">
+        <v>0.007036416794238279</v>
+      </c>
+      <c r="G16">
+        <v>0.03223604887809076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01854964247513405</v>
+        <v>0.01350409470274428</v>
       </c>
       <c r="C19">
-        <v>0.05561308692103344</v>
+        <v>0.03877546956326084</v>
       </c>
       <c r="D19">
-        <v>-0.1226186033287774</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1169274398699624</v>
+      </c>
+      <c r="E19">
+        <v>0.1112485848210317</v>
+      </c>
+      <c r="F19">
+        <v>0.01864562912165304</v>
+      </c>
+      <c r="G19">
+        <v>0.002748653025819543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.02037682771302136</v>
+        <v>0.01601644351755017</v>
       </c>
       <c r="C20">
-        <v>0.05112924838834616</v>
+        <v>0.04169747229206146</v>
       </c>
       <c r="D20">
-        <v>-0.05577501931859735</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07478569530765153</v>
+      </c>
+      <c r="E20">
+        <v>0.08334877303934055</v>
+      </c>
+      <c r="F20">
+        <v>-0.00380654053835953</v>
+      </c>
+      <c r="G20">
+        <v>0.02243950232239246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01714614951555509</v>
+        <v>0.01462932229327219</v>
       </c>
       <c r="C21">
-        <v>0.05838548487032686</v>
+        <v>0.04526630184411592</v>
       </c>
       <c r="D21">
-        <v>-0.07051702273173056</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.105827851313227</v>
+      </c>
+      <c r="E21">
+        <v>0.1398660087014241</v>
+      </c>
+      <c r="F21">
+        <v>0.007131214663897881</v>
+      </c>
+      <c r="G21">
+        <v>0.06593135353698548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.001091418631405064</v>
+        <v>0.004892519105905758</v>
       </c>
       <c r="C22">
-        <v>0.0128159461292043</v>
+        <v>0.0318579062759656</v>
       </c>
       <c r="D22">
-        <v>-0.03886186449258035</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.09061312505022981</v>
+      </c>
+      <c r="E22">
+        <v>0.0536355652746837</v>
+      </c>
+      <c r="F22">
+        <v>-0.07210346587455577</v>
+      </c>
+      <c r="G22">
+        <v>-0.05313133412917426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.001104742316492537</v>
+        <v>0.005020309843639525</v>
       </c>
       <c r="C23">
-        <v>0.01276722337210106</v>
+        <v>0.03194357973772389</v>
       </c>
       <c r="D23">
-        <v>-0.03865014220067761</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08995118434201448</v>
+      </c>
+      <c r="E23">
+        <v>0.05395355920906238</v>
+      </c>
+      <c r="F23">
+        <v>-0.072180638074211</v>
+      </c>
+      <c r="G23">
+        <v>-0.05235181614240946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03784150593233021</v>
+        <v>0.03560239682524235</v>
       </c>
       <c r="C24">
-        <v>0.05288428709463761</v>
+        <v>0.05531197115597326</v>
       </c>
       <c r="D24">
-        <v>-0.04135443885956996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0541589564743931</v>
+      </c>
+      <c r="E24">
+        <v>0.04408084887398157</v>
+      </c>
+      <c r="F24">
+        <v>0.003281847571977328</v>
+      </c>
+      <c r="G24">
+        <v>0.04825235888018391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0475557435801934</v>
+        <v>0.04150435911167244</v>
       </c>
       <c r="C25">
-        <v>0.05835337267922194</v>
+        <v>0.05514915598603157</v>
       </c>
       <c r="D25">
-        <v>-0.03919588401284112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.04975970002858279</v>
+      </c>
+      <c r="E25">
+        <v>0.03841811869272507</v>
+      </c>
+      <c r="F25">
+        <v>-0.01296814347100691</v>
+      </c>
+      <c r="G25">
+        <v>0.04941179928117436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02359304055444902</v>
+        <v>0.01944942472491642</v>
       </c>
       <c r="C26">
-        <v>0.02043674725737723</v>
+        <v>0.02017159995901407</v>
       </c>
       <c r="D26">
-        <v>-0.03847938452522698</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.05671332190696129</v>
+      </c>
+      <c r="E26">
+        <v>0.05167252816065829</v>
+      </c>
+      <c r="F26">
+        <v>0.005212585778195272</v>
+      </c>
+      <c r="G26">
+        <v>0.01053088852248386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1159737689850633</v>
+        <v>0.1590234907942469</v>
       </c>
       <c r="C28">
-        <v>-0.2567906932116113</v>
+        <v>-0.2539802670883789</v>
       </c>
       <c r="D28">
-        <v>0.03501407619934362</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02468386768732086</v>
+      </c>
+      <c r="E28">
+        <v>0.08717764872356862</v>
+      </c>
+      <c r="F28">
+        <v>-0.007557359366174813</v>
+      </c>
+      <c r="G28">
+        <v>0.07296007258980719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0103320600436415</v>
+        <v>0.008222696343546986</v>
       </c>
       <c r="C29">
-        <v>0.03169789988388989</v>
+        <v>0.02738878803283392</v>
       </c>
       <c r="D29">
-        <v>-0.02829360975615927</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.05829071075645705</v>
+      </c>
+      <c r="E29">
+        <v>0.07144629490134112</v>
+      </c>
+      <c r="F29">
+        <v>-0.009089708046604982</v>
+      </c>
+      <c r="G29">
+        <v>0.04343513283511597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03964205881659594</v>
+        <v>0.0409793526152689</v>
       </c>
       <c r="C30">
-        <v>0.04234906217201958</v>
+        <v>0.05520410838420708</v>
       </c>
       <c r="D30">
-        <v>-0.1239101919636975</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1525159216049771</v>
+      </c>
+      <c r="E30">
+        <v>0.07785095332128474</v>
+      </c>
+      <c r="F30">
+        <v>0.0007828524949058726</v>
+      </c>
+      <c r="G30">
+        <v>-0.02022763684010235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.06832601338687792</v>
+        <v>0.06296873190731844</v>
       </c>
       <c r="C31">
-        <v>0.06347123604075143</v>
+        <v>0.07161909632871073</v>
       </c>
       <c r="D31">
-        <v>-0.01534390947874296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03219329501552228</v>
+      </c>
+      <c r="E31">
+        <v>0.06306511947130927</v>
+      </c>
+      <c r="F31">
+        <v>-0.04767138627040774</v>
+      </c>
+      <c r="G31">
+        <v>0.03009989883896495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001331313844590073</v>
+        <v>0.007109201565955242</v>
       </c>
       <c r="C32">
-        <v>0.02567412109808525</v>
+        <v>0.0275404865499477</v>
       </c>
       <c r="D32">
-        <v>-0.05221080656750418</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.07386662445559561</v>
+      </c>
+      <c r="E32">
+        <v>0.1103983782195615</v>
+      </c>
+      <c r="F32">
+        <v>0.004885695495879373</v>
+      </c>
+      <c r="G32">
+        <v>0.06505231031226055</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03231382827170179</v>
+        <v>0.02686165413690961</v>
       </c>
       <c r="C33">
-        <v>0.05219352838972924</v>
+        <v>0.04878415489888491</v>
       </c>
       <c r="D33">
-        <v>-0.09240509214553219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1124821935842402</v>
+      </c>
+      <c r="E33">
+        <v>0.08733758044544689</v>
+      </c>
+      <c r="F33">
+        <v>-0.02250463444641887</v>
+      </c>
+      <c r="G33">
+        <v>0.04188133745515372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04256324368630453</v>
+        <v>0.0373351928389952</v>
       </c>
       <c r="C34">
-        <v>0.06612487770780068</v>
+        <v>0.06414828856767786</v>
       </c>
       <c r="D34">
-        <v>-0.05699001306919917</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05862369779190379</v>
+      </c>
+      <c r="E34">
+        <v>0.02119956412707978</v>
+      </c>
+      <c r="F34">
+        <v>0.0007006858620671475</v>
+      </c>
+      <c r="G34">
+        <v>0.05125308526255342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0002514498971741541</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0001976332635774026</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.001445484038456951</v>
+      </c>
+      <c r="E35">
+        <v>0.0002822743057184096</v>
+      </c>
+      <c r="F35">
+        <v>0.000284008656443475</v>
+      </c>
+      <c r="G35">
+        <v>7.783796598497347e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02434273667615501</v>
+        <v>0.01954999938808079</v>
       </c>
       <c r="C36">
-        <v>0.02031742211019789</v>
+        <v>0.01658104636509334</v>
       </c>
       <c r="D36">
-        <v>-0.03324195962567975</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.05850862265708769</v>
+      </c>
+      <c r="E36">
+        <v>0.06346510371907595</v>
+      </c>
+      <c r="F36">
+        <v>-0.006247527736261729</v>
+      </c>
+      <c r="G36">
+        <v>0.03227935080519345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0348157116748189</v>
+        <v>0.02555049583451012</v>
       </c>
       <c r="C38">
-        <v>0.03606446151439909</v>
+        <v>0.02645748733864111</v>
       </c>
       <c r="D38">
-        <v>-0.01759881512251257</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.04793248706544555</v>
+      </c>
+      <c r="E38">
+        <v>0.05013993005937543</v>
+      </c>
+      <c r="F38">
+        <v>-0.005891166650346728</v>
+      </c>
+      <c r="G38">
+        <v>-0.014059303214804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04891528352867138</v>
+        <v>0.04180685768984921</v>
       </c>
       <c r="C39">
-        <v>0.06318692057876427</v>
+        <v>0.06290672420547162</v>
       </c>
       <c r="D39">
-        <v>-0.06225976424056007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.08585863019928006</v>
+      </c>
+      <c r="E39">
+        <v>0.04436648852359412</v>
+      </c>
+      <c r="F39">
+        <v>0.01978956872385226</v>
+      </c>
+      <c r="G39">
+        <v>0.03422445939420101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.009851388284773287</v>
+        <v>0.01334894638356087</v>
       </c>
       <c r="C40">
-        <v>0.06208566724753356</v>
+        <v>0.0442449485654269</v>
       </c>
       <c r="D40">
-        <v>-0.04961697373989008</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.07278093369443096</v>
+      </c>
+      <c r="E40">
+        <v>0.1062435046949724</v>
+      </c>
+      <c r="F40">
+        <v>-0.04373217194278684</v>
+      </c>
+      <c r="G40">
+        <v>0.02154369673104226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02742133066330584</v>
+        <v>0.02212874339188797</v>
       </c>
       <c r="C41">
-        <v>0.01230418001174006</v>
+        <v>0.0102851414394349</v>
       </c>
       <c r="D41">
-        <v>-0.02902398353289064</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03897968710305112</v>
+      </c>
+      <c r="E41">
+        <v>0.07286167350802095</v>
+      </c>
+      <c r="F41">
+        <v>-0.008349797357044853</v>
+      </c>
+      <c r="G41">
+        <v>0.02330308841322806</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04269848370491067</v>
+        <v>0.0286316962162995</v>
       </c>
       <c r="C43">
-        <v>0.03306050108854183</v>
+        <v>0.02337247412487944</v>
       </c>
       <c r="D43">
-        <v>-0.06041227551468519</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.07050219330021924</v>
+      </c>
+      <c r="E43">
+        <v>0.07513510861795165</v>
+      </c>
+      <c r="F43">
+        <v>-0.01936248308423393</v>
+      </c>
+      <c r="G43">
+        <v>0.03424806344995961</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0147486249762994</v>
+        <v>0.0175744326433026</v>
       </c>
       <c r="C44">
-        <v>0.06785951885040668</v>
+        <v>0.04903261187312884</v>
       </c>
       <c r="D44">
-        <v>-0.0426580280440494</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07366491783184823</v>
+      </c>
+      <c r="E44">
+        <v>0.0963371517152098</v>
+      </c>
+      <c r="F44">
+        <v>0.00990952256779928</v>
+      </c>
+      <c r="G44">
+        <v>0.02988317823034364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01776046498813307</v>
+        <v>0.01569319591736536</v>
       </c>
       <c r="C46">
-        <v>0.03276622191351965</v>
+        <v>0.03282838164580274</v>
       </c>
       <c r="D46">
-        <v>-0.02745839772826936</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.05549451091941683</v>
+      </c>
+      <c r="E46">
+        <v>0.0771563684444158</v>
+      </c>
+      <c r="F46">
+        <v>0.007128548995982581</v>
+      </c>
+      <c r="G46">
+        <v>0.06033863538861628</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.09283063083722984</v>
+        <v>0.09267893062768906</v>
       </c>
       <c r="C47">
-        <v>0.08490771720303703</v>
+        <v>0.08983746948789638</v>
       </c>
       <c r="D47">
-        <v>0.007360559982577005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01034657577245668</v>
+      </c>
+      <c r="E47">
+        <v>0.05554475657451215</v>
+      </c>
+      <c r="F47">
+        <v>-0.03164774766430005</v>
+      </c>
+      <c r="G47">
+        <v>0.06245816193601873</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02835278923426992</v>
+        <v>0.02234945017228696</v>
       </c>
       <c r="C48">
-        <v>0.02333553829016944</v>
+        <v>0.02206254987630125</v>
       </c>
       <c r="D48">
-        <v>-0.02452374655261752</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05391898205989615</v>
+      </c>
+      <c r="E48">
+        <v>0.07620068430594291</v>
+      </c>
+      <c r="F48">
+        <v>0.002734640911889386</v>
+      </c>
+      <c r="G48">
+        <v>0.0382849243971958</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08526173516293063</v>
+        <v>0.07246319053702233</v>
       </c>
       <c r="C50">
-        <v>0.1007574477592938</v>
+        <v>0.08113342690698658</v>
       </c>
       <c r="D50">
-        <v>-0.004649727503313329</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03473467941571755</v>
+      </c>
+      <c r="E50">
+        <v>0.0754823387876036</v>
+      </c>
+      <c r="F50">
+        <v>-0.05059391898482034</v>
+      </c>
+      <c r="G50">
+        <v>0.01480708733361806</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01592971077936767</v>
+        <v>0.0128737668099455</v>
       </c>
       <c r="C51">
-        <v>0.04332498828902317</v>
+        <v>0.02654806469966288</v>
       </c>
       <c r="D51">
-        <v>-0.08510617999410904</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08739330961978872</v>
+      </c>
+      <c r="E51">
+        <v>0.05620044544220979</v>
+      </c>
+      <c r="F51">
+        <v>0.004454298578107094</v>
+      </c>
+      <c r="G51">
+        <v>0.01239168935840122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08031692167836552</v>
+        <v>0.09571823227267313</v>
       </c>
       <c r="C53">
-        <v>0.09304200902220752</v>
+        <v>0.09715557134668963</v>
       </c>
       <c r="D53">
-        <v>0.03201151561333846</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02828937267139871</v>
+      </c>
+      <c r="E53">
+        <v>0.09357011699750946</v>
+      </c>
+      <c r="F53">
+        <v>-0.02896719144669242</v>
+      </c>
+      <c r="G53">
+        <v>0.07781284688094135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.04306662069379616</v>
+        <v>0.03310036886083662</v>
       </c>
       <c r="C54">
-        <v>0.03443483002598404</v>
+        <v>0.03264817863790284</v>
       </c>
       <c r="D54">
-        <v>-0.04045781478785818</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.06561335461194012</v>
+      </c>
+      <c r="E54">
+        <v>0.0734446944345284</v>
+      </c>
+      <c r="F54">
+        <v>0.000833652816663879</v>
+      </c>
+      <c r="G54">
+        <v>0.03807848849053978</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08606158642552518</v>
+        <v>0.09321509214066426</v>
       </c>
       <c r="C55">
-        <v>0.07045185897519947</v>
+        <v>0.07857170335769224</v>
       </c>
       <c r="D55">
-        <v>0.03198299987186554</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02874363156684626</v>
+      </c>
+      <c r="E55">
+        <v>0.05302309316772411</v>
+      </c>
+      <c r="F55">
+        <v>-0.03441600135424905</v>
+      </c>
+      <c r="G55">
+        <v>0.033996588160052</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1451029788705778</v>
+        <v>0.1494631634576918</v>
       </c>
       <c r="C56">
-        <v>0.1030011146763592</v>
+        <v>0.1146134486099643</v>
       </c>
       <c r="D56">
-        <v>0.03493100004106785</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0352949010122415</v>
+      </c>
+      <c r="E56">
+        <v>0.0472929723032857</v>
+      </c>
+      <c r="F56">
+        <v>-0.02660321034401184</v>
+      </c>
+      <c r="G56">
+        <v>0.04647712477820589</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04745548142547532</v>
+        <v>0.0380230113541254</v>
       </c>
       <c r="C58">
-        <v>-0.001631862798891962</v>
+        <v>0.01472582710941269</v>
       </c>
       <c r="D58">
-        <v>-0.3364295356056695</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3373140997500391</v>
+      </c>
+      <c r="E58">
+        <v>0.2750567763817184</v>
+      </c>
+      <c r="F58">
+        <v>-0.1230450733893892</v>
+      </c>
+      <c r="G58">
+        <v>-0.5010272899654076</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1394101994505529</v>
+        <v>0.1547284808993179</v>
       </c>
       <c r="C59">
-        <v>-0.2018228409986509</v>
+        <v>-0.1867831615041714</v>
       </c>
       <c r="D59">
-        <v>-0.01929549291392578</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0351429512990699</v>
+      </c>
+      <c r="E59">
+        <v>0.03019294555568657</v>
+      </c>
+      <c r="F59">
+        <v>0.03083475905421585</v>
+      </c>
+      <c r="G59">
+        <v>-0.01522418861453692</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2563889131950766</v>
+        <v>0.2390690292179871</v>
       </c>
       <c r="C60">
-        <v>0.06791726975113015</v>
+        <v>0.0783873969143179</v>
       </c>
       <c r="D60">
-        <v>-0.190402836049812</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1767269495062621</v>
+      </c>
+      <c r="E60">
+        <v>-0.3031391686015789</v>
+      </c>
+      <c r="F60">
+        <v>-0.09984541712656406</v>
+      </c>
+      <c r="G60">
+        <v>-0.01494090189409461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0486119129090414</v>
+        <v>0.04375918968319265</v>
       </c>
       <c r="C61">
-        <v>0.0574895669071928</v>
+        <v>0.05690613462012727</v>
       </c>
       <c r="D61">
-        <v>-0.06431462624424959</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.07430917572684868</v>
+      </c>
+      <c r="E61">
+        <v>0.04703673584051155</v>
+      </c>
+      <c r="F61">
+        <v>0.001670792642122337</v>
+      </c>
+      <c r="G61">
+        <v>0.04777815303416462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01696141842365401</v>
+        <v>0.01683739627399952</v>
       </c>
       <c r="C63">
-        <v>0.03183754083999146</v>
+        <v>0.03002468570184691</v>
       </c>
       <c r="D63">
-        <v>-0.01526811841783315</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0484732068095616</v>
+      </c>
+      <c r="E63">
+        <v>0.07304318546205511</v>
+      </c>
+      <c r="F63">
+        <v>-0.02662933058203563</v>
+      </c>
+      <c r="G63">
+        <v>0.02155928069772148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05645465803546797</v>
+        <v>0.05865884866096087</v>
       </c>
       <c r="C64">
-        <v>0.05429221083195133</v>
+        <v>0.06777451240263486</v>
       </c>
       <c r="D64">
-        <v>-0.04512262269210111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04461744227176214</v>
+      </c>
+      <c r="E64">
+        <v>0.04096461981957919</v>
+      </c>
+      <c r="F64">
+        <v>0.01704376526511479</v>
+      </c>
+      <c r="G64">
+        <v>0.0746862840137648</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07311846668831028</v>
+        <v>0.06026483534730775</v>
       </c>
       <c r="C65">
-        <v>0.02881827516789298</v>
+        <v>0.02566576199970385</v>
       </c>
       <c r="D65">
-        <v>-0.08919378840628346</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.115146830690851</v>
+      </c>
+      <c r="E65">
+        <v>0.03173998944855642</v>
+      </c>
+      <c r="F65">
+        <v>-0.02916253701574624</v>
+      </c>
+      <c r="G65">
+        <v>-0.03771151904482808</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05653549631245659</v>
+        <v>0.05055909655354937</v>
       </c>
       <c r="C66">
-        <v>0.06908027546185967</v>
+        <v>0.07111075403637696</v>
       </c>
       <c r="D66">
-        <v>-0.08414694339028693</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.106235925935817</v>
+      </c>
+      <c r="E66">
+        <v>0.0534734102061545</v>
+      </c>
+      <c r="F66">
+        <v>0.0003197155316878758</v>
+      </c>
+      <c r="G66">
+        <v>0.02530214115909601</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05546568981985426</v>
+        <v>0.04477614383817132</v>
       </c>
       <c r="C67">
-        <v>0.03750006964776246</v>
+        <v>0.0302992733576514</v>
       </c>
       <c r="D67">
-        <v>-0.00112003083345233</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01967929208473635</v>
+      </c>
+      <c r="E67">
+        <v>0.02464485390126621</v>
+      </c>
+      <c r="F67">
+        <v>-0.007163299443217935</v>
+      </c>
+      <c r="G67">
+        <v>-0.006498613565623874</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1480322749611447</v>
+        <v>0.1655871548718582</v>
       </c>
       <c r="C68">
-        <v>-0.2742814332971609</v>
+        <v>-0.2342227415092063</v>
       </c>
       <c r="D68">
-        <v>0.04518896584101613</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01186775252669763</v>
+      </c>
+      <c r="E68">
+        <v>0.06169478655774162</v>
+      </c>
+      <c r="F68">
+        <v>-0.02423248456256581</v>
+      </c>
+      <c r="G68">
+        <v>-0.01193407077876768</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09362389259716412</v>
+        <v>0.08773953665752564</v>
       </c>
       <c r="C69">
-        <v>0.09743624007888636</v>
+        <v>0.1028767076449057</v>
       </c>
       <c r="D69">
-        <v>0.0001937461630990118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02608819303372993</v>
+      </c>
+      <c r="E69">
+        <v>0.0564889232212997</v>
+      </c>
+      <c r="F69">
+        <v>-0.009132312907953568</v>
+      </c>
+      <c r="G69">
+        <v>0.05588872723243445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1345622034209008</v>
+        <v>0.1586138107323813</v>
       </c>
       <c r="C71">
-        <v>-0.2505438372802227</v>
+        <v>-0.2334109948492296</v>
       </c>
       <c r="D71">
-        <v>-0.002215393385315393</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0127894640457112</v>
+      </c>
+      <c r="E71">
+        <v>0.06954566572873287</v>
+      </c>
+      <c r="F71">
+        <v>-0.02965534180417359</v>
+      </c>
+      <c r="G71">
+        <v>0.05302882607238538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.09635260909804522</v>
+        <v>0.1018904579275603</v>
       </c>
       <c r="C72">
-        <v>0.06369610602190226</v>
+        <v>0.05974036142638358</v>
       </c>
       <c r="D72">
-        <v>-0.0575421912610518</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.07587974792911396</v>
+      </c>
+      <c r="E72">
+        <v>0.01644731465654591</v>
+      </c>
+      <c r="F72">
+        <v>-0.02800171424091309</v>
+      </c>
+      <c r="G72">
+        <v>0.05351585847895434</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3346220835916753</v>
+        <v>0.2916339111325426</v>
       </c>
       <c r="C73">
-        <v>-0.008008242192279481</v>
+        <v>0.03913338602674486</v>
       </c>
       <c r="D73">
-        <v>-0.4573058741669363</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.3725851576377698</v>
+      </c>
+      <c r="E73">
+        <v>-0.6227929000489696</v>
+      </c>
+      <c r="F73">
+        <v>-0.1021142018563336</v>
+      </c>
+      <c r="G73">
+        <v>-0.06484339687056261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1004398523422083</v>
+        <v>0.1064373239951918</v>
       </c>
       <c r="C74">
-        <v>0.09478866809065802</v>
+        <v>0.0942103335985098</v>
       </c>
       <c r="D74">
-        <v>0.01631055650879877</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02861188960145884</v>
+      </c>
+      <c r="E74">
+        <v>0.06989334865108489</v>
+      </c>
+      <c r="F74">
+        <v>-0.05149085253914449</v>
+      </c>
+      <c r="G74">
+        <v>0.03216476151015299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2522998662366678</v>
+        <v>0.2534491449040264</v>
       </c>
       <c r="C75">
-        <v>0.1247058803969513</v>
+        <v>0.1440732423911313</v>
       </c>
       <c r="D75">
-        <v>0.1359937956972149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1416853801824171</v>
+      </c>
+      <c r="E75">
+        <v>0.04098954266700148</v>
+      </c>
+      <c r="F75">
+        <v>0.005737416418021738</v>
+      </c>
+      <c r="G75">
+        <v>0.02990875904401125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1122113260950589</v>
+        <v>0.1264750565940073</v>
       </c>
       <c r="C76">
-        <v>0.1017985842046453</v>
+        <v>0.1043655936094604</v>
       </c>
       <c r="D76">
-        <v>0.04815203155090524</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04501678145147774</v>
+      </c>
+      <c r="E76">
+        <v>0.103827037700177</v>
+      </c>
+      <c r="F76">
+        <v>-0.009071779247240046</v>
+      </c>
+      <c r="G76">
+        <v>0.0453466398092446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08659218152672012</v>
+        <v>0.06849980682941834</v>
       </c>
       <c r="C77">
-        <v>0.03879699375338256</v>
+        <v>0.06213080876178714</v>
       </c>
       <c r="D77">
-        <v>-0.0901269091154045</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1135897515846945</v>
+      </c>
+      <c r="E77">
+        <v>0.1127828500745335</v>
+      </c>
+      <c r="F77">
+        <v>0.2550942402733768</v>
+      </c>
+      <c r="G77">
+        <v>-0.1434954467180832</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.0442259471140227</v>
+        <v>0.04577991554022053</v>
       </c>
       <c r="C78">
-        <v>0.0390261589283588</v>
+        <v>0.05563126334271028</v>
       </c>
       <c r="D78">
-        <v>-0.07950890975041658</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1107527331041922</v>
+      </c>
+      <c r="E78">
+        <v>0.05343780508955136</v>
+      </c>
+      <c r="F78">
+        <v>-0.00510334222122597</v>
+      </c>
+      <c r="G78">
+        <v>0.03941681321973967</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.001982891769993654</v>
+        <v>0.03833483657586204</v>
       </c>
       <c r="C79">
-        <v>-0.001841047724335194</v>
+        <v>0.06313196787472378</v>
       </c>
       <c r="D79">
-        <v>-0.009113941525018973</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06807165264959029</v>
+      </c>
+      <c r="E79">
+        <v>0.09629629010494103</v>
+      </c>
+      <c r="F79">
+        <v>-0.05742684500240702</v>
+      </c>
+      <c r="G79">
+        <v>0.2939160816934593</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03425758252183177</v>
+        <v>0.02848572346183821</v>
       </c>
       <c r="C80">
-        <v>0.04102350468580185</v>
+        <v>0.04298148128236984</v>
       </c>
       <c r="D80">
-        <v>-0.03430714285440418</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03988912162696577</v>
+      </c>
+      <c r="E80">
+        <v>0.01581584698714337</v>
+      </c>
+      <c r="F80">
+        <v>0.0470498174186632</v>
+      </c>
+      <c r="G80">
+        <v>-0.008655465727055998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1479011083776682</v>
+        <v>0.1408973158666173</v>
       </c>
       <c r="C81">
-        <v>0.1056175397193968</v>
+        <v>0.111087417806648</v>
       </c>
       <c r="D81">
-        <v>0.09774664970246875</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09770271176866693</v>
+      </c>
+      <c r="E81">
+        <v>0.0848344069487683</v>
+      </c>
+      <c r="F81">
+        <v>-0.008705886605165986</v>
+      </c>
+      <c r="G81">
+        <v>0.0393527348787211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.230167122406032</v>
+        <v>0.2422604690164043</v>
       </c>
       <c r="C82">
-        <v>0.1571502418641317</v>
+        <v>0.2035355661404782</v>
       </c>
       <c r="D82">
-        <v>0.1684801398034189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2243846211947861</v>
+      </c>
+      <c r="E82">
+        <v>-0.08009613050964111</v>
+      </c>
+      <c r="F82">
+        <v>0.04168788365858976</v>
+      </c>
+      <c r="G82">
+        <v>0.3637118981361154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04120295470377876</v>
+        <v>0.02729724333118662</v>
       </c>
       <c r="C83">
-        <v>0.04260437871153268</v>
+        <v>0.04876113082947914</v>
       </c>
       <c r="D83">
-        <v>-0.06849147452067297</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04896293771875719</v>
+      </c>
+      <c r="E83">
+        <v>0.01795263936214966</v>
+      </c>
+      <c r="F83">
+        <v>0.02054002686161501</v>
+      </c>
+      <c r="G83">
+        <v>-0.003227572226982672</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2.623370687993416e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.00258214193333854</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.002341659271055815</v>
+      </c>
+      <c r="E84">
+        <v>0.008770077292706138</v>
+      </c>
+      <c r="F84">
+        <v>-0.003046025104825449</v>
+      </c>
+      <c r="G84">
+        <v>-0.007789549866698275</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1928692259486592</v>
+        <v>0.181425159605739</v>
       </c>
       <c r="C85">
-        <v>0.1067932778796174</v>
+        <v>0.1180631644013413</v>
       </c>
       <c r="D85">
-        <v>0.1312045058892095</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1197849113051857</v>
+      </c>
+      <c r="E85">
+        <v>0.02857644655265147</v>
+      </c>
+      <c r="F85">
+        <v>-0.03932576608791492</v>
+      </c>
+      <c r="G85">
+        <v>0.0832358156743313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01202040932271756</v>
+        <v>0.01628813818724095</v>
       </c>
       <c r="C86">
-        <v>0.03207125768277277</v>
+        <v>0.01731232753554033</v>
       </c>
       <c r="D86">
-        <v>-0.1101559083902597</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1037728601199886</v>
+      </c>
+      <c r="E86">
+        <v>0.06824170039454459</v>
+      </c>
+      <c r="F86">
+        <v>0.01264854876925956</v>
+      </c>
+      <c r="G86">
+        <v>0.04403449679835884</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.03539144306994812</v>
+        <v>0.03473450737929361</v>
       </c>
       <c r="C87">
-        <v>-0.001039380093261245</v>
+        <v>0.01681051796284099</v>
       </c>
       <c r="D87">
-        <v>-0.1061628657801417</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1296754186094519</v>
+      </c>
+      <c r="E87">
+        <v>0.108742647396025</v>
+      </c>
+      <c r="F87">
+        <v>0.0510042289964251</v>
+      </c>
+      <c r="G87">
+        <v>-0.03268787600177636</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1014080185762952</v>
+        <v>0.08611032202781259</v>
       </c>
       <c r="C88">
-        <v>0.08096971291861912</v>
+        <v>0.06614980719025723</v>
       </c>
       <c r="D88">
-        <v>0.001677000557002875</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01429037711027735</v>
+      </c>
+      <c r="E88">
+        <v>0.05394746661495226</v>
+      </c>
+      <c r="F88">
+        <v>-0.01599480996504082</v>
+      </c>
+      <c r="G88">
+        <v>0.0432784311337621</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2101069240927914</v>
+        <v>0.2391196351567398</v>
       </c>
       <c r="C89">
-        <v>-0.3581752822738952</v>
+        <v>-0.3662843668774556</v>
       </c>
       <c r="D89">
-        <v>0.06050090891613363</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02100645848135116</v>
+      </c>
+      <c r="E89">
+        <v>0.09539726542202709</v>
+      </c>
+      <c r="F89">
+        <v>0.05956231330813477</v>
+      </c>
+      <c r="G89">
+        <v>0.03803892769578575</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2018969384424682</v>
+        <v>0.2183183393504342</v>
       </c>
       <c r="C90">
-        <v>-0.3044316424422343</v>
+        <v>-0.2890547303064218</v>
       </c>
       <c r="D90">
-        <v>0.03838032926113222</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>5.84200601876552e-05</v>
+      </c>
+      <c r="E90">
+        <v>0.06019301627022784</v>
+      </c>
+      <c r="F90">
+        <v>-0.01688345387772987</v>
+      </c>
+      <c r="G90">
+        <v>-0.01568555725359756</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1894791497782821</v>
+        <v>0.183216820333443</v>
       </c>
       <c r="C91">
-        <v>0.1593936269364888</v>
+        <v>0.1621220543348055</v>
       </c>
       <c r="D91">
-        <v>0.1031484107250404</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1063177911980866</v>
+      </c>
+      <c r="E91">
+        <v>0.06700853003743414</v>
+      </c>
+      <c r="F91">
+        <v>-0.01967600186423089</v>
+      </c>
+      <c r="G91">
+        <v>0.03657793727391814</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1838825225159545</v>
+        <v>0.1974154541148784</v>
       </c>
       <c r="C92">
-        <v>-0.2521817113298277</v>
+        <v>-0.2746677321347269</v>
       </c>
       <c r="D92">
-        <v>-0.009128071401560117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.007952481575056722</v>
+      </c>
+      <c r="E92">
+        <v>0.08822480501685714</v>
+      </c>
+      <c r="F92">
+        <v>0.03576172269835903</v>
+      </c>
+      <c r="G92">
+        <v>0.02898241202888344</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.22132831006032</v>
+        <v>0.2353944131816153</v>
       </c>
       <c r="C93">
-        <v>-0.3169947485309624</v>
+        <v>-0.3031123648330933</v>
       </c>
       <c r="D93">
-        <v>0.04467004682242121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02008841778209402</v>
+      </c>
+      <c r="E93">
+        <v>0.04258064677143004</v>
+      </c>
+      <c r="F93">
+        <v>-0.02653049477419609</v>
+      </c>
+      <c r="G93">
+        <v>0.03209375939670901</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3631484853682753</v>
+        <v>0.3458318120290222</v>
       </c>
       <c r="C94">
-        <v>0.2100324715384532</v>
+        <v>0.2190479907659102</v>
       </c>
       <c r="D94">
-        <v>0.5032921978616517</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4431367405295266</v>
+      </c>
+      <c r="E94">
+        <v>0.01254459403263125</v>
+      </c>
+      <c r="F94">
+        <v>0.0667469560040329</v>
+      </c>
+      <c r="G94">
+        <v>-0.6119417895741105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.0939479645210166</v>
+        <v>0.06859602090618487</v>
       </c>
       <c r="C95">
-        <v>-0.001359787728977894</v>
+        <v>0.03736966106471418</v>
       </c>
       <c r="D95">
-        <v>-0.1646813349540527</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1520355496617491</v>
+      </c>
+      <c r="E95">
+        <v>-0.06237371972673932</v>
+      </c>
+      <c r="F95">
+        <v>0.9121904005325255</v>
+      </c>
+      <c r="G95">
+        <v>0.0238692033810484</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1777478001003216</v>
+        <v>0.1762915209402052</v>
       </c>
       <c r="C98">
-        <v>0.012179162539664</v>
+        <v>0.04303439377213013</v>
       </c>
       <c r="D98">
-        <v>-0.2207940515284762</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.193371284504169</v>
+      </c>
+      <c r="E98">
+        <v>-0.2382307534010503</v>
+      </c>
+      <c r="F98">
+        <v>-0.07830322034590931</v>
+      </c>
+      <c r="G98">
+        <v>0.01473162056508139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0101937669921756</v>
+        <v>0.00833660784241011</v>
       </c>
       <c r="C101">
-        <v>0.03109732566191678</v>
+        <v>0.02653152089108803</v>
       </c>
       <c r="D101">
-        <v>-0.0281008546160107</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.05815054418659784</v>
+      </c>
+      <c r="E101">
+        <v>0.07243642801506457</v>
+      </c>
+      <c r="F101">
+        <v>-0.008090027544690709</v>
+      </c>
+      <c r="G101">
+        <v>0.04400384448510188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1208350210666725</v>
+        <v>0.1200079174354429</v>
       </c>
       <c r="C102">
-        <v>0.08460995799671477</v>
+        <v>0.1109860836803258</v>
       </c>
       <c r="D102">
-        <v>0.03475627772505065</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04763215008371121</v>
+      </c>
+      <c r="E102">
+        <v>-0.002533640698231018</v>
+      </c>
+      <c r="F102">
+        <v>0.02555940045117317</v>
+      </c>
+      <c r="G102">
+        <v>0.05217086958637685</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
